--- a/testdata/DataFile.xlsx
+++ b/testdata/DataFile.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303846\eclipse-workspace\HackthonProject\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D48AAC8-BE3F-40D4-A52E-64CBFB25D1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D98FCC-4C88-4762-87BE-33DEC8A00C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5E5260A0-F84D-4556-919B-48E06886A98A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="33" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65288726-40BE-44E0-B1C7-B46477AE9B1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADAFBC-2DB0-4AA8-8185-50C5A2483AED}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
